--- a/biology/Botanique/Tapinanthus/Tapinanthus.xlsx
+++ b/biology/Botanique/Tapinanthus/Tapinanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapinanthus  est un genre de plantes de la famille des Loranthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 septembre 2017) :
 Tapinanthus apodanthus (Sprague) Danser
 Tapinanthus bangwensis (Engl. &amp; Krause) Danser
 Tapinanthus belvisii (DC.) Danser
@@ -544,13 +558,13 @@
 Tapinanthus quequensis (Weim.) R.M. Polhill &amp; D. Wiens
 Tapinanthus rubromarginatus (EngI.) Danser
 Tapinanthus sessilifolius (P. Beauv.) Bl.
-Selon GRIN            (27 septembre 2017)[3] :
+Selon GRIN            (27 septembre 2017) :
 Tapinanthus bangwensis (Engl. &amp; K. Krause) Danser
 Tapinanthus globiferus (A. Rich.) Tiegh.
-Selon NCBI  (27 septembre 2017)[4] :
+Selon NCBI  (27 septembre 2017) :
 Tapinanthus constrictiflorus
 Tapinanthus quinquangulus
-Selon The Plant List            (27 septembre 2017)[5] :
+Selon The Plant List            (27 septembre 2017) :
 Tapinanthus apodanthus (Sprague) Danser
 Tapinanthus bangwensis (Engl. &amp; K.Krause) Danser
 Tapinanthus belvisii (DC.) Danser
@@ -590,7 +604,7 @@
 Tapinanthus rubromarginatus (Engl.) Danser
 Tapinanthus sessilifolius (P.Beauv.) Blume
 Tapinanthus viscum L.
-Selon Tropicos                                           (27 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Tapinanthus acacietorum (Bullock) Danser
 Tapinanthus adolfi-friderici (Engl. &amp; Krause) Danser
 Tapinanthus alatus Danser
